--- a/statistics-EXCELs/Stats Pjs.xlsx
+++ b/statistics-EXCELs/Stats Pjs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianca\Desktop\aoweb-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianca\Desktop\aoweb-backend\statistics-EXCELs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>fuerza</t>
   </si>
@@ -53,12 +53,6 @@
     <t>critico / start chance</t>
   </si>
   <si>
-    <t>evasion</t>
-  </si>
-  <si>
-    <t>defensa</t>
-  </si>
-  <si>
     <t>min, max = dmg *  4 / 7</t>
   </si>
   <si>
@@ -75,6 +69,15 @@
   </si>
   <si>
     <t>vida * 15</t>
+  </si>
+  <si>
+    <t>defensa * 5</t>
+  </si>
+  <si>
+    <t>evasion * 2</t>
+  </si>
+  <si>
+    <t>defensa * 2</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,16 +472,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -489,16 +492,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -509,16 +512,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>

--- a/statistics-EXCELs/Stats Pjs.xlsx
+++ b/statistics-EXCELs/Stats Pjs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>fuerza</t>
   </si>
@@ -71,13 +71,16 @@
     <t>vida * 15</t>
   </si>
   <si>
-    <t>defensa * 5</t>
-  </si>
-  <si>
     <t>evasion * 2</t>
   </si>
   <si>
     <t>defensa * 2</t>
+  </si>
+  <si>
+    <t>defensa * 1</t>
+  </si>
+  <si>
+    <t>defensa * 3</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +478,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -489,19 +492,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -509,19 +512,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
